--- a/2_avisos_cambio_fondos/anuncios_ff.xlsx
+++ b/2_avisos_cambio_fondos/anuncios_ff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvarad\Documents\ACEE\FyF_dolar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvarad\Documents\ACEE\fyf_github\fyf\2_avisos_cambio_fondos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>Fondo inicio</t>
   </si>
   <si>
-    <t>Sugerencia FyF</t>
-  </si>
-  <si>
     <t>Fondo A</t>
   </si>
   <si>
@@ -1185,6 +1182,9 @@
   </si>
   <si>
     <t>80% A / 20% E</t>
+  </si>
+  <si>
+    <t>Sugerencia</t>
   </si>
 </sst>
 </file>
@@ -1714,31 +1714,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,10 +1749,10 @@
         <v>44157</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -1771,10 +1771,10 @@
         <v>44147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" s="15">
         <v>-1.9900000000000001E-2</v>
@@ -1809,10 +1809,10 @@
         <v>44130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="15">
         <v>-3.0099999999999998E-2</v>
@@ -1847,10 +1847,10 @@
         <v>44119</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="16">
         <v>3.5900000000000001E-2</v>
@@ -1885,10 +1885,10 @@
         <v>44103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" s="16">
         <v>1.3299999999999999E-2</v>
@@ -1923,10 +1923,10 @@
         <v>44097</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="15">
         <v>-2.0999999999999999E-3</v>
@@ -1961,10 +1961,10 @@
         <v>44082</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" s="15">
         <v>-1.9300000000000001E-2</v>
@@ -1999,10 +1999,10 @@
         <v>44061</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16">
         <v>7.3000000000000001E-3</v>
@@ -2037,10 +2037,10 @@
         <v>44049</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E10" s="16">
         <v>2.8199999999999999E-2</v>
@@ -2075,10 +2075,10 @@
         <v>44040</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="16">
         <v>2.0500000000000001E-2</v>
@@ -2113,10 +2113,10 @@
         <v>43998</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="19">
         <v>3.2500000000000001E-2</v>
@@ -2151,34 +2151,34 @@
         <v>43978</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2189,34 +2189,34 @@
         <v>43958</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2227,34 +2227,34 @@
         <v>43922</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2265,34 +2265,34 @@
         <v>43914</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2303,34 +2303,34 @@
         <v>43902</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2341,34 +2341,34 @@
         <v>43893</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2379,34 +2379,34 @@
         <v>43846</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2417,34 +2417,34 @@
         <v>43839</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2455,34 +2455,34 @@
         <v>43815</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2493,34 +2493,34 @@
         <v>43791</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2531,34 +2531,34 @@
         <v>43780</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2569,34 +2569,34 @@
         <v>43754</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2607,34 +2607,34 @@
         <v>43642</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,34 +2645,34 @@
         <v>43620</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2683,34 +2683,34 @@
         <v>43587</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2721,34 +2721,34 @@
         <v>43578</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2759,34 +2759,34 @@
         <v>43571</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2797,34 +2797,34 @@
         <v>43489</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2835,34 +2835,34 @@
         <v>43483</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2873,34 +2873,34 @@
         <v>43460</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,34 +2911,34 @@
         <v>43446</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,34 +2949,34 @@
         <v>43413</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="L34" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,34 +2987,34 @@
         <v>43409</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="J35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3025,34 +3025,34 @@
         <v>43384</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3063,34 +3063,34 @@
         <v>43378</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3101,34 +3101,34 @@
         <v>43367</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3139,34 +3139,34 @@
         <v>43348</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="J39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3177,34 +3177,34 @@
         <v>43341</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3215,34 +3215,34 @@
         <v>43332</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3253,34 +3253,34 @@
         <v>43308</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="J42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3291,34 +3291,34 @@
         <v>43290</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="J43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3329,34 +3329,34 @@
         <v>43276</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3367,34 +3367,34 @@
         <v>43270</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3405,34 +3405,34 @@
         <v>43257</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="K46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3443,34 +3443,34 @@
         <v>43244</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3481,34 +3481,34 @@
         <v>43224</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3519,34 +3519,34 @@
         <v>43209</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3557,34 +3557,34 @@
         <v>43182</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="K50" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,34 +3595,34 @@
         <v>43173</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="L51" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3633,34 +3633,34 @@
         <v>43166</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3671,34 +3671,34 @@
         <v>43157</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3709,34 +3709,34 @@
         <v>43136</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3747,34 +3747,34 @@
         <v>43122</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="J55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="L55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3785,34 +3785,34 @@
         <v>43109</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3823,34 +3823,34 @@
         <v>43088</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="J57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L57" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3861,34 +3861,34 @@
         <v>43067</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="L58" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3899,34 +3899,34 @@
         <v>43020</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3937,34 +3937,34 @@
         <v>43006</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="L60" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3975,34 +3975,34 @@
         <v>42990</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4013,34 +4013,34 @@
         <v>42957</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="I62" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4051,34 +4051,34 @@
         <v>42929</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="J63" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4089,34 +4089,34 @@
         <v>42726</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="K64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4127,34 +4127,34 @@
         <v>42683</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="J65" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4165,34 +4165,34 @@
         <v>42626</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="J66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4203,34 +4203,34 @@
         <v>42619</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="J67" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4241,34 +4241,34 @@
         <v>42489</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="K68" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4279,34 +4279,34 @@
         <v>42422</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="J69" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4317,34 +4317,34 @@
         <v>42384</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="K70" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4355,34 +4355,34 @@
         <v>42375</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="G71" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J71" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="L71" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4393,34 +4393,34 @@
         <v>42360</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J72" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="L72" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4431,34 +4431,34 @@
         <v>42354</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="H73" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4469,34 +4469,34 @@
         <v>42303</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="K74" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4507,34 +4507,34 @@
         <v>42290</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="G75" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4545,34 +4545,34 @@
         <v>42240</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="K76" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4583,34 +4583,34 @@
         <v>42193</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="K77" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4621,34 +4621,34 @@
         <v>42137</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="I78" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J78" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4659,34 +4659,34 @@
         <v>42081</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="L79" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4697,34 +4697,34 @@
         <v>42047</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="I80" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4735,34 +4735,34 @@
         <v>41988</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="J81" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,34 +4773,34 @@
         <v>41942</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4811,34 +4811,34 @@
         <v>41870</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="G83" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4849,34 +4849,34 @@
         <v>41852</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="K84" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4887,34 +4887,34 @@
         <v>41704</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4925,34 +4925,34 @@
         <v>41663</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="J86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L86" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4963,34 +4963,34 @@
         <v>41523</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5001,34 +5001,34 @@
         <v>41502</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5039,34 +5039,34 @@
         <v>41472</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5077,34 +5077,34 @@
         <v>41367</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="J90" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5115,34 +5115,34 @@
         <v>41276</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="I91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5153,34 +5153,34 @@
         <v>41150</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="H92" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5191,34 +5191,34 @@
         <v>41109</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5229,34 +5229,34 @@
         <v>41088</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5267,34 +5267,34 @@
         <v>41079</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="H95" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5305,34 +5305,34 @@
         <v>40997</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="I96" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="L96" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5343,34 +5343,34 @@
         <v>40919</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5381,34 +5381,34 @@
         <v>40869</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G98" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="J98" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5419,34 +5419,34 @@
         <v>40828</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="G99" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="J99" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L99" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
